--- a/MacroTrend/SAVE/SAVE_Q.xlsx
+++ b/MacroTrend/SAVE/SAVE_Q.xlsx
@@ -913,62 +913,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1258.543</v>
+        <v>1321.76</v>
       </c>
       <c r="C2" t="n">
-        <v>455.241</v>
+        <v>487.181</v>
       </c>
       <c r="D2" t="n">
-        <v>803.302</v>
+        <v>834.579</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>614.49</v>
+        <v>614.126</v>
       </c>
       <c r="G2" t="n">
-        <v>-197.377</v>
+        <v>-249.251</v>
       </c>
       <c r="H2" t="n">
-        <v>992.062</v>
+        <v>1049.392</v>
       </c>
       <c r="I2" t="n">
-        <v>-188.76</v>
+        <v>-214.814</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.885</v>
+        <v>-13.461</v>
       </c>
       <c r="K2" t="n">
-        <v>-203.645</v>
+        <v>-228.274</v>
       </c>
       <c r="L2" t="n">
-        <v>-46.093</v>
+        <v>-44.622</v>
       </c>
       <c r="M2" t="n">
-        <v>-157.552</v>
+        <v>-183.652</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-157.552</v>
+        <v>-183.652</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-157.552</v>
+        <v>-183.652</v>
       </c>
       <c r="R2" t="n">
-        <v>-101.333</v>
+        <v>-128.615</v>
       </c>
       <c r="S2" t="n">
-        <v>-188.76</v>
+        <v>-214.814</v>
       </c>
       <c r="T2" t="n">
         <v>109</v>
@@ -977,31 +977,31 @@
         <v>109</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.44</v>
+        <v>-1.69</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.44</v>
+        <v>-1.69</v>
       </c>
       <c r="X2" t="n">
-        <v>1048.656</v>
+        <v>1097.112</v>
       </c>
       <c r="Y2" t="n">
-        <v>171.508</v>
+        <v>205.468</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.878</v>
+        <v>209.547</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1449.042</v>
+        <v>1512.127</v>
       </c>
       <c r="AD2" t="n">
-        <v>3731.96</v>
+        <v>3519.128</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -1010,79 +1010,79 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>533.167</v>
+        <v>511.449</v>
       </c>
       <c r="AH2" t="n">
-        <v>7912.508</v>
+        <v>7905.11</v>
       </c>
       <c r="AI2" t="n">
-        <v>9361.549999999999</v>
+        <v>9417.236999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1600.8</v>
+        <v>1671.592</v>
       </c>
       <c r="AK2" t="n">
-        <v>3043.391</v>
+        <v>3055.221</v>
       </c>
       <c r="AL2" t="n">
-        <v>132.861</v>
+        <v>149.45</v>
       </c>
       <c r="AM2" t="n">
-        <v>6444.705</v>
+        <v>6611.303</v>
       </c>
       <c r="AN2" t="n">
-        <v>8045.505</v>
+        <v>8282.895</v>
       </c>
       <c r="AO2" t="n">
         <v>0.011</v>
       </c>
       <c r="AP2" t="n">
-        <v>240.407</v>
+        <v>56.755</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.304</v>
+        <v>-0.067</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1316.045</v>
+        <v>1134.342</v>
       </c>
       <c r="AT2" t="n">
-        <v>9361.549999999999</v>
+        <v>9417.236999999999</v>
       </c>
       <c r="AU2" t="n">
-        <v>-157.552</v>
+        <v>-183.652</v>
       </c>
       <c r="AV2" t="n">
-        <v>87.42700000000001</v>
+        <v>86.199</v>
       </c>
       <c r="AW2" t="n">
-        <v>-42.209</v>
+        <v>-20.169</v>
       </c>
       <c r="AX2" t="n">
-        <v>45.218</v>
+        <v>66.03</v>
       </c>
       <c r="AY2" t="n">
-        <v>15.627</v>
+        <v>-34.509</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.906000000000001</v>
+        <v>-43.457</v>
       </c>
       <c r="BB2" t="n">
-        <v>-143.509</v>
+        <v>12.264</v>
       </c>
       <c r="BC2" t="n">
-        <v>-82.264</v>
+        <v>-65.15300000000001</v>
       </c>
       <c r="BD2" t="n">
-        <v>-194.598</v>
+        <v>-182.775</v>
       </c>
       <c r="BE2" t="n">
-        <v>-57.763</v>
+        <v>155.134</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
@@ -1094,170 +1094,170 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.503</v>
+        <v>-0.354</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.503</v>
+        <v>-0.354</v>
       </c>
       <c r="BK2" t="n">
-        <v>-5.254</v>
+        <v>-5.743</v>
       </c>
       <c r="BL2" t="n">
-        <v>-63.52</v>
+        <v>149.037</v>
       </c>
       <c r="BM2" t="n">
-        <v>-45.301</v>
+        <v>407.392</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-45.301</v>
+        <v>407.392</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.034</v>
+        <v>-0.929</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.034</v>
+        <v>-0.929</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>11.088</v>
+        <v>-325.837</v>
       </c>
       <c r="BT2" t="n">
-        <v>-34.247</v>
+        <v>80.626</v>
       </c>
       <c r="BU2" t="n">
-        <v>-292.365</v>
+        <v>46.888</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.569</v>
+        <v>2.641</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.9052</v>
+        <v>0.9046</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6981000000000001</v>
+        <v>0.7292</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.4918</v>
+        <v>2.9716</v>
       </c>
       <c r="CA2" t="n">
-        <v>63.8279</v>
+        <v>63.1415</v>
       </c>
       <c r="CB2" t="n">
-        <v>-14.9983</v>
+        <v>-16.2521</v>
       </c>
       <c r="CC2" t="n">
-        <v>-14.9983</v>
+        <v>-16.2521</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-16.181</v>
+        <v>-17.2705</v>
       </c>
       <c r="CF2" t="n">
-        <v>-12.5186</v>
+        <v>-13.8945</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1344</v>
+        <v>0.1404</v>
       </c>
       <c r="CH2" t="n">
         <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>7.3381</v>
+        <v>6.4329</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12.2648</v>
+        <v>13.9905</v>
       </c>
       <c r="CK2" t="n">
-        <v>-11.9716</v>
+        <v>-16.1902</v>
       </c>
       <c r="CL2" t="n">
-        <v>-11.9716</v>
+        <v>-16.1902</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.683</v>
+        <v>-1.9502</v>
       </c>
       <c r="CN2" t="n">
-        <v>-3.614</v>
+        <v>-4.3836</v>
       </c>
       <c r="CO2" t="n">
-        <v>12.0552</v>
+        <v>10.3818</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.7826</v>
+        <v>-1.6746</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-2.3118</v>
+        <v>-0.2534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1432.472</v>
+        <v>1258.543</v>
       </c>
       <c r="C3" t="n">
-        <v>391.032</v>
+        <v>455.241</v>
       </c>
       <c r="D3" t="n">
-        <v>1041.44</v>
+        <v>803.302</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>621.718</v>
+        <v>614.49</v>
       </c>
       <c r="G3" t="n">
-        <v>-226.868</v>
+        <v>-197.377</v>
       </c>
       <c r="H3" t="n">
-        <v>1021.229</v>
+        <v>992.062</v>
       </c>
       <c r="I3" t="n">
-        <v>20.211</v>
+        <v>-188.76</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.239</v>
+        <v>-14.885</v>
       </c>
       <c r="K3" t="n">
-        <v>14.972</v>
+        <v>-203.645</v>
       </c>
       <c r="L3" t="n">
-        <v>17.321</v>
+        <v>-46.093</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.349</v>
+        <v>-157.552</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.349</v>
+        <v>-157.552</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-2.349</v>
+        <v>-157.552</v>
       </c>
       <c r="R3" t="n">
-        <v>105.276</v>
+        <v>-101.333</v>
       </c>
       <c r="S3" t="n">
-        <v>20.211</v>
+        <v>-188.76</v>
       </c>
       <c r="T3" t="n">
         <v>109</v>
@@ -1266,31 +1266,31 @@
         <v>109</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.02</v>
+        <v>-1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.02</v>
+        <v>-1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>1339.582</v>
+        <v>1048.656</v>
       </c>
       <c r="Y3" t="n">
-        <v>223</v>
+        <v>171.508</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.252</v>
+        <v>228.878</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1772.834</v>
+        <v>1449.042</v>
       </c>
       <c r="AD3" t="n">
-        <v>3740.5</v>
+        <v>3731.96</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1299,79 +1299,79 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>547.974</v>
+        <v>533.167</v>
       </c>
       <c r="AH3" t="n">
-        <v>7599.293</v>
+        <v>7912.508</v>
       </c>
       <c r="AI3" t="n">
-        <v>9372.127</v>
+        <v>9361.549999999999</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1685.962</v>
+        <v>1600.8</v>
       </c>
       <c r="AK3" t="n">
-        <v>3081.192</v>
+        <v>3043.391</v>
       </c>
       <c r="AL3" t="n">
-        <v>134.668</v>
+        <v>132.861</v>
       </c>
       <c r="AM3" t="n">
-        <v>6215.093</v>
+        <v>6444.705</v>
       </c>
       <c r="AN3" t="n">
-        <v>7901.055</v>
+        <v>8045.505</v>
       </c>
       <c r="AO3" t="n">
         <v>0.011</v>
       </c>
       <c r="AP3" t="n">
-        <v>397.959</v>
+        <v>240.407</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.294</v>
+        <v>-0.304</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1471.072</v>
+        <v>1316.045</v>
       </c>
       <c r="AT3" t="n">
-        <v>9372.127</v>
+        <v>9361.549999999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>-2.349</v>
+        <v>-157.552</v>
       </c>
       <c r="AV3" t="n">
-        <v>85.065</v>
+        <v>87.42700000000001</v>
       </c>
       <c r="AW3" t="n">
-        <v>20.126</v>
+        <v>-42.209</v>
       </c>
       <c r="AX3" t="n">
-        <v>105.191</v>
+        <v>45.218</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.669</v>
+        <v>15.627</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>36.548</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="BB3" t="n">
-        <v>-148.786</v>
+        <v>-143.509</v>
       </c>
       <c r="BC3" t="n">
-        <v>-112.907</v>
+        <v>-82.264</v>
       </c>
       <c r="BD3" t="n">
-        <v>-10.065</v>
+        <v>-194.598</v>
       </c>
       <c r="BE3" t="n">
-        <v>-47.851</v>
+        <v>-57.763</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1383,170 +1383,170 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.607</v>
+        <v>-0.503</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.607</v>
+        <v>-0.503</v>
       </c>
       <c r="BK3" t="n">
-        <v>-6.001</v>
+        <v>-5.254</v>
       </c>
       <c r="BL3" t="n">
-        <v>-54.459</v>
+        <v>-63.52</v>
       </c>
       <c r="BM3" t="n">
-        <v>-112.498</v>
+        <v>-45.301</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-112.498</v>
+        <v>-45.301</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.001</v>
+        <v>-0.034</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.001</v>
+        <v>-0.034</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>11.088</v>
       </c>
       <c r="BT3" t="n">
-        <v>-112.499</v>
+        <v>-34.247</v>
       </c>
       <c r="BU3" t="n">
-        <v>-177.023</v>
+        <v>-292.365</v>
       </c>
       <c r="BV3" t="n">
-        <v>3.48</v>
+        <v>2.569</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.0515</v>
+        <v>0.9052</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.6768</v>
+        <v>0.6981000000000001</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.2547</v>
+        <v>2.4918</v>
       </c>
       <c r="CA3" t="n">
-        <v>72.70229999999999</v>
+        <v>63.8279</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.4109</v>
+        <v>-14.9983</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.4109</v>
+        <v>-14.9983</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.0452</v>
+        <v>-16.181</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.164</v>
+        <v>-12.5186</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.1528</v>
+        <v>0.1344</v>
       </c>
       <c r="CH3" t="n">
         <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>6.4236</v>
+        <v>7.3381</v>
       </c>
       <c r="CJ3" t="n">
-        <v>14.0107</v>
+        <v>12.2648</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0.1597</v>
+        <v>-11.9716</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.1597</v>
+        <v>-11.9716</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.0251</v>
+        <v>-1.683</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0.0516</v>
+        <v>-3.614</v>
       </c>
       <c r="CO3" t="n">
-        <v>13.4762</v>
+        <v>12.0552</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.09279999999999999</v>
+        <v>-1.7826</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.5309</v>
+        <v>-2.3118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1349.774</v>
+        <v>1432.472</v>
       </c>
       <c r="C4" t="n">
-        <v>487.711</v>
+        <v>391.032</v>
       </c>
       <c r="D4" t="n">
-        <v>862.063</v>
+        <v>1041.44</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>588.961</v>
+        <v>621.718</v>
       </c>
       <c r="G4" t="n">
-        <v>-222.239</v>
+        <v>-226.868</v>
       </c>
       <c r="H4" t="n">
-        <v>974.458</v>
+        <v>1021.229</v>
       </c>
       <c r="I4" t="n">
-        <v>-112.395</v>
+        <v>20.211</v>
       </c>
       <c r="J4" t="n">
-        <v>-29.253</v>
+        <v>-5.239</v>
       </c>
       <c r="K4" t="n">
-        <v>-141.648</v>
+        <v>14.972</v>
       </c>
       <c r="L4" t="n">
-        <v>-37.737</v>
+        <v>17.321</v>
       </c>
       <c r="M4" t="n">
-        <v>-103.911</v>
+        <v>-2.349</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-103.911</v>
+        <v>-2.349</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-103.911</v>
+        <v>-2.349</v>
       </c>
       <c r="R4" t="n">
-        <v>-26.615</v>
+        <v>105.276</v>
       </c>
       <c r="S4" t="n">
-        <v>-112.395</v>
+        <v>20.211</v>
       </c>
       <c r="T4" t="n">
         <v>109</v>
@@ -1555,31 +1555,31 @@
         <v>109</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.95</v>
+        <v>-0.02</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.95</v>
+        <v>-0.02</v>
       </c>
       <c r="X4" t="n">
-        <v>1515.468</v>
+        <v>1339.582</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.331</v>
+        <v>223</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.284</v>
+        <v>210.252</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1918.083</v>
+        <v>1772.834</v>
       </c>
       <c r="AD4" t="n">
-        <v>3738.682</v>
+        <v>3740.5</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1588,79 +1588,79 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>575.7089999999999</v>
+        <v>547.974</v>
       </c>
       <c r="AH4" t="n">
-        <v>7404.234</v>
+        <v>7599.293</v>
       </c>
       <c r="AI4" t="n">
-        <v>9322.316999999999</v>
+        <v>9372.127</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1752.609</v>
+        <v>1685.962</v>
       </c>
       <c r="AK4" t="n">
-        <v>3164.061</v>
+        <v>3081.192</v>
       </c>
       <c r="AL4" t="n">
-        <v>141.736</v>
+        <v>134.668</v>
       </c>
       <c r="AM4" t="n">
-        <v>6099.862</v>
+        <v>6215.093</v>
       </c>
       <c r="AN4" t="n">
-        <v>7852.471</v>
+        <v>7901.055</v>
       </c>
       <c r="AO4" t="n">
         <v>0.011</v>
       </c>
       <c r="AP4" t="n">
-        <v>400.308</v>
+        <v>397.959</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.39</v>
+        <v>-0.294</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1469.846</v>
+        <v>1471.072</v>
       </c>
       <c r="AT4" t="n">
-        <v>9322.316999999999</v>
+        <v>9372.127</v>
       </c>
       <c r="AU4" t="n">
-        <v>-103.911</v>
+        <v>-2.349</v>
       </c>
       <c r="AV4" t="n">
-        <v>85.78</v>
+        <v>85.065</v>
       </c>
       <c r="AW4" t="n">
-        <v>-26.375</v>
+        <v>20.126</v>
       </c>
       <c r="AX4" t="n">
-        <v>59.405</v>
+        <v>105.191</v>
       </c>
       <c r="AY4" t="n">
-        <v>11.2</v>
+        <v>-0.669</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-37.048</v>
+        <v>36.548</v>
       </c>
       <c r="BB4" t="n">
-        <v>211.131</v>
+        <v>-148.786</v>
       </c>
       <c r="BC4" t="n">
-        <v>185.283</v>
+        <v>-112.907</v>
       </c>
       <c r="BD4" t="n">
-        <v>140.777</v>
+        <v>-10.065</v>
       </c>
       <c r="BE4" t="n">
-        <v>-62.111</v>
+        <v>-47.851</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -1672,170 +1672,170 @@
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.593</v>
+        <v>-0.607</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.593</v>
+        <v>-0.607</v>
       </c>
       <c r="BK4" t="n">
-        <v>-4.862</v>
+        <v>-6.001</v>
       </c>
       <c r="BL4" t="n">
-        <v>-67.566</v>
+        <v>-54.459</v>
       </c>
       <c r="BM4" t="n">
-        <v>-129.614</v>
+        <v>-112.498</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-129.614</v>
+        <v>-112.498</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1.673</v>
+        <v>-0.001</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-1.673</v>
+        <v>-0.001</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.555</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-131.842</v>
+        <v>-112.499</v>
       </c>
       <c r="BU4" t="n">
-        <v>-58.631</v>
+        <v>-177.023</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.273</v>
+        <v>3.48</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.0944</v>
+        <v>1.0515</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.6828</v>
+        <v>0.6768</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.3307</v>
+        <v>2.2547</v>
       </c>
       <c r="CA4" t="n">
-        <v>63.8672</v>
+        <v>72.70229999999999</v>
       </c>
       <c r="CB4" t="n">
-        <v>-8.327</v>
+        <v>1.4109</v>
       </c>
       <c r="CC4" t="n">
-        <v>-8.327</v>
+        <v>1.4109</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-10.4942</v>
+        <v>1.0452</v>
       </c>
       <c r="CF4" t="n">
-        <v>-7.6984</v>
+        <v>-0.164</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1448</v>
+        <v>0.1528</v>
       </c>
       <c r="CH4" t="n">
         <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.071</v>
+        <v>6.4236</v>
       </c>
       <c r="CJ4" t="n">
-        <v>14.8246</v>
+        <v>14.0107</v>
       </c>
       <c r="CK4" t="n">
-        <v>-7.0695</v>
+        <v>-0.1597</v>
       </c>
       <c r="CL4" t="n">
-        <v>-7.0695</v>
+        <v>-0.1597</v>
       </c>
       <c r="CM4" t="n">
-        <v>-1.1146</v>
+        <v>-0.0251</v>
       </c>
       <c r="CN4" t="n">
-        <v>-2.2424</v>
+        <v>-0.0516</v>
       </c>
       <c r="CO4" t="n">
-        <v>13.4649</v>
+        <v>13.4762</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.2902</v>
+        <v>-0.09279999999999999</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.721</v>
+        <v>-0.5309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391.31</v>
+        <v>1349.774</v>
       </c>
       <c r="C5" t="n">
-        <v>494.255</v>
+        <v>487.711</v>
       </c>
       <c r="D5" t="n">
-        <v>897.0549999999999</v>
+        <v>862.063</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>499.75</v>
+        <v>588.961</v>
       </c>
       <c r="G5" t="n">
-        <v>-548.3680000000001</v>
+        <v>-222.239</v>
       </c>
       <c r="H5" t="n">
-        <v>1202.784</v>
+        <v>974.458</v>
       </c>
       <c r="I5" t="n">
-        <v>-305.729</v>
+        <v>-112.395</v>
       </c>
       <c r="J5" t="n">
-        <v>-34.568</v>
+        <v>-29.253</v>
       </c>
       <c r="K5" t="n">
-        <v>-340.297</v>
+        <v>-141.648</v>
       </c>
       <c r="L5" t="n">
-        <v>-69.633</v>
+        <v>-37.737</v>
       </c>
       <c r="M5" t="n">
-        <v>-270.664</v>
+        <v>-103.911</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-270.664</v>
+        <v>-103.911</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-270.664</v>
+        <v>-103.911</v>
       </c>
       <c r="R5" t="n">
-        <v>-216.104</v>
+        <v>-26.615</v>
       </c>
       <c r="S5" t="n">
-        <v>-305.729</v>
+        <v>-112.395</v>
       </c>
       <c r="T5" t="n">
         <v>109</v>
@@ -1844,31 +1844,31 @@
         <v>109</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.5</v>
+        <v>-0.95</v>
       </c>
       <c r="W5" t="n">
-        <v>-2.5</v>
+        <v>-0.95</v>
       </c>
       <c r="X5" t="n">
-        <v>1572.857</v>
+        <v>1515.468</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.537</v>
+        <v>222.331</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.589</v>
+        <v>180.284</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1993.983</v>
+        <v>1918.083</v>
       </c>
       <c r="AD5" t="n">
-        <v>3749.498</v>
+        <v>3738.682</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1877,79 +1877,79 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>551.37</v>
+        <v>575.7089999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>7190.791</v>
+        <v>7404.234</v>
       </c>
       <c r="AI5" t="n">
-        <v>9184.773999999999</v>
+        <v>9322.316999999999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1596.581</v>
+        <v>1752.609</v>
       </c>
       <c r="AK5" t="n">
-        <v>3200.376</v>
+        <v>3164.061</v>
       </c>
       <c r="AL5" t="n">
-        <v>133.704</v>
+        <v>141.736</v>
       </c>
       <c r="AM5" t="n">
-        <v>6016.542</v>
+        <v>6099.862</v>
       </c>
       <c r="AN5" t="n">
-        <v>7613.123</v>
+        <v>7852.471</v>
       </c>
       <c r="AO5" t="n">
         <v>0.011</v>
       </c>
       <c r="AP5" t="n">
-        <v>504.219</v>
+        <v>400.308</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.596</v>
+        <v>-0.39</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1571.651</v>
+        <v>1469.846</v>
       </c>
       <c r="AT5" t="n">
-        <v>9184.773999999999</v>
+        <v>9322.316999999999</v>
       </c>
       <c r="AU5" t="n">
-        <v>-270.664</v>
+        <v>-103.911</v>
       </c>
       <c r="AV5" t="n">
-        <v>89.625</v>
+        <v>85.78</v>
       </c>
       <c r="AW5" t="n">
-        <v>281.305</v>
+        <v>-26.375</v>
       </c>
       <c r="AX5" t="n">
-        <v>370.93</v>
+        <v>59.405</v>
       </c>
       <c r="AY5" t="n">
-        <v>-25.064</v>
+        <v>11.2</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-39.049</v>
+        <v>-37.048</v>
       </c>
       <c r="BB5" t="n">
-        <v>-93.01900000000001</v>
+        <v>211.131</v>
       </c>
       <c r="BC5" t="n">
-        <v>-157.03</v>
+        <v>185.283</v>
       </c>
       <c r="BD5" t="n">
-        <v>-56.764</v>
+        <v>140.777</v>
       </c>
       <c r="BE5" t="n">
-        <v>-55.695</v>
+        <v>-62.111</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
@@ -1961,170 +1961,170 @@
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.483</v>
+        <v>-0.593</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.483</v>
+        <v>-0.593</v>
       </c>
       <c r="BK5" t="n">
-        <v>-4.86</v>
+        <v>-4.862</v>
       </c>
       <c r="BL5" t="n">
-        <v>-61.038</v>
+        <v>-67.566</v>
       </c>
       <c r="BM5" t="n">
-        <v>537.539</v>
+        <v>-129.614</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>537.539</v>
+        <v>-129.614</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.552</v>
+        <v>-1.673</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.552</v>
+        <v>-1.673</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-2.271</v>
+        <v>-0.555</v>
       </c>
       <c r="BT5" t="n">
-        <v>534.716</v>
+        <v>-131.842</v>
       </c>
       <c r="BU5" t="n">
-        <v>416.914</v>
+        <v>-58.631</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.938</v>
+        <v>3.273</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.2489</v>
+        <v>1.0944</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.6707</v>
+        <v>0.6828</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.257</v>
+        <v>2.3307</v>
       </c>
       <c r="CA5" t="n">
-        <v>64.4756</v>
+        <v>63.8672</v>
       </c>
       <c r="CB5" t="n">
-        <v>-21.9742</v>
+        <v>-8.327</v>
       </c>
       <c r="CC5" t="n">
-        <v>-21.9742</v>
+        <v>-8.327</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-24.4588</v>
+        <v>-10.4942</v>
       </c>
       <c r="CF5" t="n">
-        <v>-19.4539</v>
+        <v>-7.6984</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.1515</v>
+        <v>0.1448</v>
       </c>
       <c r="CH5" t="n">
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>5.9576</v>
+        <v>6.071</v>
       </c>
       <c r="CJ5" t="n">
-        <v>15.1069</v>
+        <v>14.8246</v>
       </c>
       <c r="CK5" t="n">
-        <v>-17.2216</v>
+        <v>-7.0695</v>
       </c>
       <c r="CL5" t="n">
-        <v>-17.2216</v>
+        <v>-7.0695</v>
       </c>
       <c r="CM5" t="n">
-        <v>-2.9469</v>
+        <v>-1.1146</v>
       </c>
       <c r="CN5" t="n">
-        <v>-5.6719</v>
+        <v>-2.2424</v>
       </c>
       <c r="CO5" t="n">
-        <v>14.4265</v>
+        <v>13.4649</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.5223</v>
+        <v>1.2902</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-1.036</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1343.179</v>
+        <v>1391.31</v>
       </c>
       <c r="C6" t="n">
-        <v>508.496</v>
+        <v>494.255</v>
       </c>
       <c r="D6" t="n">
-        <v>834.683</v>
+        <v>897.0549999999999</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>499.642</v>
+        <v>499.75</v>
       </c>
       <c r="G6" t="n">
-        <v>-217.915</v>
+        <v>-548.3680000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>871.073</v>
+        <v>1202.784</v>
       </c>
       <c r="I6" t="n">
-        <v>-36.39</v>
+        <v>-305.729</v>
       </c>
       <c r="J6" t="n">
-        <v>-12.504</v>
+        <v>-34.568</v>
       </c>
       <c r="K6" t="n">
-        <v>-48.894</v>
+        <v>-340.297</v>
       </c>
       <c r="L6" t="n">
-        <v>-12.517</v>
+        <v>-69.633</v>
       </c>
       <c r="M6" t="n">
-        <v>-36.377</v>
+        <v>-270.664</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-36.377</v>
+        <v>-270.664</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-36.377</v>
+        <v>-270.664</v>
       </c>
       <c r="R6" t="n">
-        <v>48.283</v>
+        <v>-216.104</v>
       </c>
       <c r="S6" t="n">
-        <v>-36.39</v>
+        <v>-305.729</v>
       </c>
       <c r="T6" t="n">
         <v>109</v>
@@ -2133,31 +2133,31 @@
         <v>109</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.33</v>
+        <v>-2.5</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.33</v>
+        <v>-2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1155.083</v>
+        <v>1572.857</v>
       </c>
       <c r="Y6" t="n">
-        <v>208.575</v>
+        <v>233.537</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.139</v>
+        <v>187.589</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.756</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1550.553</v>
+        <v>1993.983</v>
       </c>
       <c r="AD6" t="n">
-        <v>3881.137</v>
+        <v>3749.498</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -2166,79 +2166,79 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>560.963</v>
+        <v>551.37</v>
       </c>
       <c r="AH6" t="n">
-        <v>7134.942</v>
+        <v>7190.791</v>
       </c>
       <c r="AI6" t="n">
-        <v>8685.495000000001</v>
+        <v>9184.773999999999</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1668.531</v>
+        <v>1596.581</v>
       </c>
       <c r="AK6" t="n">
-        <v>2657.83</v>
+        <v>3200.376</v>
       </c>
       <c r="AL6" t="n">
-        <v>116.998</v>
+        <v>133.704</v>
       </c>
       <c r="AM6" t="n">
-        <v>5177.187</v>
+        <v>6016.542</v>
       </c>
       <c r="AN6" t="n">
-        <v>6845.718</v>
+        <v>7613.123</v>
       </c>
       <c r="AO6" t="n">
         <v>0.011</v>
       </c>
       <c r="AP6" t="n">
-        <v>774.883</v>
+        <v>504.219</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.747</v>
+        <v>-0.596</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1839.777</v>
+        <v>1571.651</v>
       </c>
       <c r="AT6" t="n">
-        <v>8685.495000000001</v>
+        <v>9184.773999999999</v>
       </c>
       <c r="AU6" t="n">
-        <v>-36.377</v>
+        <v>-270.664</v>
       </c>
       <c r="AV6" t="n">
-        <v>84.673</v>
+        <v>89.625</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.508</v>
+        <v>281.305</v>
       </c>
       <c r="AX6" t="n">
-        <v>85.181</v>
+        <v>370.93</v>
       </c>
       <c r="AY6" t="n">
-        <v>-22.063</v>
+        <v>-25.064</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>25.283</v>
+        <v>-39.049</v>
       </c>
       <c r="BB6" t="n">
-        <v>-172.576</v>
+        <v>-93.01900000000001</v>
       </c>
       <c r="BC6" t="n">
-        <v>-167.829</v>
+        <v>-157.03</v>
       </c>
       <c r="BD6" t="n">
-        <v>-119.025</v>
+        <v>-56.764</v>
       </c>
       <c r="BE6" t="n">
-        <v>-76.749</v>
+        <v>-55.695</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -2250,170 +2250,170 @@
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.237</v>
+        <v>-0.483</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.237</v>
+        <v>-0.483</v>
       </c>
       <c r="BK6" t="n">
-        <v>-4.358</v>
+        <v>-4.86</v>
       </c>
       <c r="BL6" t="n">
-        <v>-81.34399999999999</v>
+        <v>-61.038</v>
       </c>
       <c r="BM6" t="n">
-        <v>-43.238</v>
+        <v>537.539</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-43.238</v>
+        <v>537.539</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.03</v>
+        <v>-0.552</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.03</v>
+        <v>-0.552</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-2.271</v>
       </c>
       <c r="BT6" t="n">
-        <v>-43.268</v>
+        <v>534.716</v>
       </c>
       <c r="BU6" t="n">
-        <v>-243.637</v>
+        <v>416.914</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.822</v>
+        <v>2.938</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.9293</v>
+        <v>1.2489</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.5909</v>
+        <v>0.6707</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.637</v>
+        <v>2.257</v>
       </c>
       <c r="CA6" t="n">
-        <v>62.1424</v>
+        <v>64.4756</v>
       </c>
       <c r="CB6" t="n">
-        <v>-2.7093</v>
+        <v>-21.9742</v>
       </c>
       <c r="CC6" t="n">
-        <v>-2.7093</v>
+        <v>-21.9742</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-3.6402</v>
+        <v>-24.4588</v>
       </c>
       <c r="CF6" t="n">
-        <v>-2.7083</v>
+        <v>-19.4539</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.1546</v>
+        <v>0.1515</v>
       </c>
       <c r="CH6" t="n">
         <v>0</v>
       </c>
       <c r="CI6" t="n">
-        <v>6.4398</v>
+        <v>5.9576</v>
       </c>
       <c r="CJ6" t="n">
-        <v>13.9756</v>
+        <v>15.1069</v>
       </c>
       <c r="CK6" t="n">
-        <v>-1.9773</v>
+        <v>-17.2216</v>
       </c>
       <c r="CL6" t="n">
-        <v>-1.9773</v>
+        <v>-17.2216</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.4188</v>
+        <v>-2.9469</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0.8088</v>
+        <v>-5.6719</v>
       </c>
       <c r="CO6" t="n">
-        <v>16.9009</v>
+        <v>14.4265</v>
       </c>
       <c r="CP6" t="n">
-        <v>-1.0945</v>
+        <v>-0.5223</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-1.7982</v>
+        <v>-1.036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1366.643</v>
+        <v>1343.179</v>
       </c>
       <c r="C7" t="n">
-        <v>558.633</v>
+        <v>508.496</v>
       </c>
       <c r="D7" t="n">
-        <v>808.01</v>
+        <v>834.683</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>494.786</v>
+        <v>499.642</v>
       </c>
       <c r="G7" t="n">
-        <v>-213.453</v>
+        <v>-217.915</v>
       </c>
       <c r="H7" t="n">
-        <v>853.34</v>
+        <v>871.073</v>
       </c>
       <c r="I7" t="n">
-        <v>-45.33</v>
+        <v>-36.39</v>
       </c>
       <c r="J7" t="n">
-        <v>-22.182</v>
+        <v>-12.504</v>
       </c>
       <c r="K7" t="n">
-        <v>-67.512</v>
+        <v>-48.894</v>
       </c>
       <c r="L7" t="n">
-        <v>-15.106</v>
+        <v>-12.517</v>
       </c>
       <c r="M7" t="n">
-        <v>-52.406</v>
+        <v>-36.377</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-52.406</v>
+        <v>-36.377</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-52.406</v>
+        <v>-36.377</v>
       </c>
       <c r="R7" t="n">
-        <v>38.742</v>
+        <v>48.283</v>
       </c>
       <c r="S7" t="n">
-        <v>-45.33</v>
+        <v>-36.39</v>
       </c>
       <c r="T7" t="n">
         <v>109</v>
@@ -2422,31 +2422,31 @@
         <v>109</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.48</v>
+        <v>-0.33</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.48</v>
+        <v>-0.33</v>
       </c>
       <c r="X7" t="n">
-        <v>1398.385</v>
+        <v>1155.083</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.039</v>
+        <v>208.575</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.202</v>
+        <v>173.139</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.228</v>
+        <v>13.756</v>
       </c>
       <c r="AC7" t="n">
-        <v>1761.854</v>
+        <v>1550.553</v>
       </c>
       <c r="AD7" t="n">
-        <v>3858.418</v>
+        <v>3881.137</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -2455,79 +2455,79 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>553.625</v>
+        <v>560.963</v>
       </c>
       <c r="AH7" t="n">
-        <v>6953.169</v>
+        <v>7134.942</v>
       </c>
       <c r="AI7" t="n">
-        <v>8715.022999999999</v>
+        <v>8685.495000000001</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1737.132</v>
+        <v>1668.531</v>
       </c>
       <c r="AK7" t="n">
-        <v>2696.201</v>
+        <v>2657.83</v>
       </c>
       <c r="AL7" t="n">
-        <v>116.657</v>
+        <v>116.998</v>
       </c>
       <c r="AM7" t="n">
-        <v>5104.676</v>
+        <v>5177.187</v>
       </c>
       <c r="AN7" t="n">
-        <v>6841.808</v>
+        <v>6845.718</v>
       </c>
       <c r="AO7" t="n">
         <v>0.011</v>
       </c>
       <c r="AP7" t="n">
-        <v>811.26</v>
+        <v>774.883</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.894</v>
+        <v>-0.747</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1873.215</v>
+        <v>1839.777</v>
       </c>
       <c r="AT7" t="n">
-        <v>8715.022999999999</v>
+        <v>8685.495000000001</v>
       </c>
       <c r="AU7" t="n">
-        <v>-52.406</v>
+        <v>-36.377</v>
       </c>
       <c r="AV7" t="n">
-        <v>84.072</v>
+        <v>84.673</v>
       </c>
       <c r="AW7" t="n">
-        <v>-3.377</v>
+        <v>0.508</v>
       </c>
       <c r="AX7" t="n">
-        <v>80.69499999999999</v>
+        <v>85.181</v>
       </c>
       <c r="AY7" t="n">
-        <v>10.631</v>
+        <v>-22.063</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>27.986</v>
+        <v>25.283</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.316</v>
+        <v>-172.576</v>
       </c>
       <c r="BC7" t="n">
-        <v>38.933</v>
+        <v>-167.829</v>
       </c>
       <c r="BD7" t="n">
-        <v>67.22199999999999</v>
+        <v>-119.025</v>
       </c>
       <c r="BE7" t="n">
-        <v>-60.442</v>
+        <v>-76.749</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
@@ -2539,170 +2539,170 @@
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.221</v>
+        <v>-0.237</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.221</v>
+        <v>-0.237</v>
       </c>
       <c r="BK7" t="n">
-        <v>-4.776</v>
+        <v>-4.358</v>
       </c>
       <c r="BL7" t="n">
-        <v>-65.43899999999999</v>
+        <v>-81.34399999999999</v>
       </c>
       <c r="BM7" t="n">
-        <v>-52.628</v>
+        <v>-43.238</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-52.628</v>
+        <v>-43.238</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.005</v>
+        <v>-0.03</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.005</v>
+        <v>-0.03</v>
       </c>
       <c r="BR7" t="n">
         <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-52.631</v>
+        <v>-43.268</v>
       </c>
       <c r="BU7" t="n">
-        <v>-50.848</v>
+        <v>-243.637</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.677</v>
+        <v>2.822</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.0142</v>
+        <v>0.9293</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.5901</v>
+        <v>0.5909</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.627</v>
+        <v>1.637</v>
       </c>
       <c r="CA7" t="n">
-        <v>59.1237</v>
+        <v>62.1424</v>
       </c>
       <c r="CB7" t="n">
-        <v>-3.3169</v>
+        <v>-2.7093</v>
       </c>
       <c r="CC7" t="n">
-        <v>-3.3169</v>
+        <v>-2.7093</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-4.94</v>
+        <v>-3.6402</v>
       </c>
       <c r="CF7" t="n">
-        <v>-3.8347</v>
+        <v>-2.7083</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1568</v>
+        <v>0.1546</v>
       </c>
       <c r="CH7" t="n">
         <v>0</v>
       </c>
       <c r="CI7" t="n">
-        <v>7.2679</v>
+        <v>6.4398</v>
       </c>
       <c r="CJ7" t="n">
-        <v>12.3833</v>
+        <v>13.9756</v>
       </c>
       <c r="CK7" t="n">
-        <v>-2.7977</v>
+        <v>-1.9773</v>
       </c>
       <c r="CL7" t="n">
-        <v>-2.7977</v>
+        <v>-1.9773</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.6012999999999999</v>
+        <v>-0.4188</v>
       </c>
       <c r="CN7" t="n">
-        <v>-1.1469</v>
+        <v>-0.8088</v>
       </c>
       <c r="CO7" t="n">
-        <v>17.209</v>
+        <v>16.9009</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.6182</v>
+        <v>-1.0945</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.06270000000000001</v>
+        <v>-1.7982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>967.3150000000001</v>
+        <v>1366.643</v>
       </c>
       <c r="C8" t="n">
-        <v>368.585</v>
+        <v>558.633</v>
       </c>
       <c r="D8" t="n">
-        <v>598.73</v>
+        <v>808.01</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>469.692</v>
+        <v>494.786</v>
       </c>
       <c r="G8" t="n">
-        <v>-198.271</v>
+        <v>-213.453</v>
       </c>
       <c r="H8" t="n">
-        <v>810.198</v>
+        <v>853.34</v>
       </c>
       <c r="I8" t="n">
-        <v>-211.468</v>
+        <v>-45.33</v>
       </c>
       <c r="J8" t="n">
-        <v>-32.568</v>
+        <v>-22.182</v>
       </c>
       <c r="K8" t="n">
-        <v>-244.036</v>
+        <v>-67.512</v>
       </c>
       <c r="L8" t="n">
-        <v>-49.333</v>
+        <v>-15.106</v>
       </c>
       <c r="M8" t="n">
-        <v>-194.703</v>
+        <v>-52.406</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-194.703</v>
+        <v>-52.406</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-194.703</v>
+        <v>-52.406</v>
       </c>
       <c r="R8" t="n">
-        <v>-129.318</v>
+        <v>38.742</v>
       </c>
       <c r="S8" t="n">
-        <v>-211.468</v>
+        <v>-45.33</v>
       </c>
       <c r="T8" t="n">
         <v>109</v>
@@ -2711,31 +2711,31 @@
         <v>109</v>
       </c>
       <c r="V8" t="n">
-        <v>-1.79</v>
+        <v>-0.48</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.79</v>
+        <v>-0.48</v>
       </c>
       <c r="X8" t="n">
-        <v>1449.326</v>
+        <v>1398.385</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.562</v>
+        <v>188.039</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>166.634</v>
+        <v>163.202</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.94</v>
+        <v>12.228</v>
       </c>
       <c r="AC8" t="n">
-        <v>1829.462</v>
+        <v>1761.854</v>
       </c>
       <c r="AD8" t="n">
-        <v>3852.559</v>
+        <v>3858.418</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -2744,79 +2744,79 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>561.1079999999999</v>
+        <v>553.625</v>
       </c>
       <c r="AH8" t="n">
-        <v>6782.255</v>
+        <v>6953.169</v>
       </c>
       <c r="AI8" t="n">
-        <v>8611.717000000001</v>
+        <v>8715.022999999999</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1611.275</v>
+        <v>1737.132</v>
       </c>
       <c r="AK8" t="n">
-        <v>2801.759</v>
+        <v>2696.201</v>
       </c>
       <c r="AL8" t="n">
-        <v>116.24</v>
+        <v>116.657</v>
       </c>
       <c r="AM8" t="n">
-        <v>5079.066</v>
+        <v>5104.676</v>
       </c>
       <c r="AN8" t="n">
-        <v>6690.341</v>
+        <v>6841.808</v>
       </c>
       <c r="AO8" t="n">
         <v>0.011</v>
       </c>
       <c r="AP8" t="n">
-        <v>863.6660000000001</v>
+        <v>811.26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.762</v>
+        <v>-0.894</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1921.376</v>
+        <v>1873.215</v>
       </c>
       <c r="AT8" t="n">
-        <v>8611.717000000001</v>
+        <v>8715.022999999999</v>
       </c>
       <c r="AU8" t="n">
-        <v>-194.703</v>
+        <v>-52.406</v>
       </c>
       <c r="AV8" t="n">
-        <v>82.15000000000001</v>
+        <v>84.072</v>
       </c>
       <c r="AW8" t="n">
-        <v>-33.737</v>
+        <v>-3.377</v>
       </c>
       <c r="AX8" t="n">
-        <v>48.413</v>
+        <v>80.69499999999999</v>
       </c>
       <c r="AY8" t="n">
-        <v>-31.844</v>
+        <v>10.631</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-5.188</v>
+        <v>27.986</v>
       </c>
       <c r="BB8" t="n">
-        <v>202.867</v>
+        <v>0.316</v>
       </c>
       <c r="BC8" t="n">
-        <v>165.835</v>
+        <v>38.933</v>
       </c>
       <c r="BD8" t="n">
-        <v>19.545</v>
+        <v>67.22199999999999</v>
       </c>
       <c r="BE8" t="n">
-        <v>-53.198</v>
+        <v>-60.442</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
@@ -2828,203 +2828,203 @@
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.249</v>
+        <v>-0.221</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.249</v>
+        <v>-0.221</v>
       </c>
       <c r="BK8" t="n">
-        <v>-4.172</v>
+        <v>-4.776</v>
       </c>
       <c r="BL8" t="n">
-        <v>-57.619</v>
+        <v>-65.43899999999999</v>
       </c>
       <c r="BM8" t="n">
-        <v>-44.548</v>
+        <v>-52.628</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-44.548</v>
+        <v>-52.628</v>
       </c>
       <c r="BP8" t="n">
-        <v>-1.772</v>
+        <v>-0.005</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-1.772</v>
+        <v>-0.005</v>
       </c>
       <c r="BR8" t="n">
         <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-1.2</v>
+        <v>0.002</v>
       </c>
       <c r="BT8" t="n">
-        <v>-47.52</v>
+        <v>-52.631</v>
       </c>
       <c r="BU8" t="n">
-        <v>-85.59399999999999</v>
+        <v>-50.848</v>
       </c>
       <c r="BV8" t="n">
-        <v>4.046</v>
+        <v>1.677</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.1354</v>
+        <v>1.0142</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5901</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1.6112</v>
+        <v>1.627</v>
       </c>
       <c r="CA8" t="n">
-        <v>61.8961</v>
+        <v>59.1237</v>
       </c>
       <c r="CB8" t="n">
-        <v>-21.8614</v>
+        <v>-3.3169</v>
       </c>
       <c r="CC8" t="n">
-        <v>-21.8614</v>
+        <v>-3.3169</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-25.2282</v>
+        <v>-4.94</v>
       </c>
       <c r="CF8" t="n">
-        <v>-20.1282</v>
+        <v>-3.8347</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.1123</v>
+        <v>0.1568</v>
       </c>
       <c r="CH8" t="n">
         <v>0</v>
       </c>
       <c r="CI8" t="n">
-        <v>4.8716</v>
+        <v>7.2679</v>
       </c>
       <c r="CJ8" t="n">
-        <v>18.4744</v>
+        <v>12.3833</v>
       </c>
       <c r="CK8" t="n">
-        <v>-10.1335</v>
+        <v>-2.7977</v>
       </c>
       <c r="CL8" t="n">
-        <v>-10.1335</v>
+        <v>-2.7977</v>
       </c>
       <c r="CM8" t="n">
-        <v>-2.2609</v>
+        <v>-0.6012999999999999</v>
       </c>
       <c r="CN8" t="n">
-        <v>-4.1223</v>
+        <v>-1.1469</v>
       </c>
       <c r="CO8" t="n">
-        <v>17.6891</v>
+        <v>17.209</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.18</v>
+        <v>0.6182</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.3099</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>987.556</v>
+        <v>967.3150000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>296.572</v>
+        <v>368.585</v>
       </c>
       <c r="D9" t="n">
-        <v>690.984</v>
+        <v>598.73</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>456.138</v>
+        <v>469.692</v>
       </c>
       <c r="G9" t="n">
-        <v>-160.155</v>
+        <v>-198.271</v>
       </c>
       <c r="H9" t="n">
-        <v>752.534</v>
+        <v>810.198</v>
       </c>
       <c r="I9" t="n">
-        <v>-61.55</v>
+        <v>-211.468</v>
       </c>
       <c r="J9" t="n">
-        <v>-30.277</v>
+        <v>-32.568</v>
       </c>
       <c r="K9" t="n">
-        <v>-91.827</v>
+        <v>-244.036</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.668</v>
+        <v>-49.333</v>
       </c>
       <c r="M9" t="n">
-        <v>-87.15900000000001</v>
+        <v>-194.703</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>-87.15900000000001</v>
+        <v>-194.703</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-87.15900000000001</v>
+        <v>-194.703</v>
       </c>
       <c r="R9" t="n">
-        <v>16.613</v>
+        <v>-129.318</v>
       </c>
       <c r="S9" t="n">
-        <v>-61.55</v>
+        <v>-211.468</v>
       </c>
       <c r="T9" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U9" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.76</v>
+        <v>-1.79</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.76</v>
+        <v>-1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>1535.22</v>
+        <v>1449.326</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.718</v>
+        <v>198.562</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.553</v>
+        <v>166.634</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>14.94</v>
       </c>
       <c r="AC9" t="n">
-        <v>1842.491</v>
+        <v>1829.462</v>
       </c>
       <c r="AD9" t="n">
-        <v>3856.593</v>
+        <v>3852.559</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -3033,79 +3033,79 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>560.359</v>
+        <v>561.1079999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>6697.534</v>
+        <v>6782.255</v>
       </c>
       <c r="AI9" t="n">
-        <v>8540.025</v>
+        <v>8611.717000000001</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1275.602</v>
+        <v>1611.275</v>
       </c>
       <c r="AK9" t="n">
-        <v>2975.823</v>
+        <v>2801.759</v>
       </c>
       <c r="AL9" t="n">
-        <v>47.742</v>
+        <v>116.24</v>
       </c>
       <c r="AM9" t="n">
-        <v>5150.388</v>
+        <v>5079.066</v>
       </c>
       <c r="AN9" t="n">
-        <v>6425.99</v>
+        <v>6690.341</v>
       </c>
       <c r="AO9" t="n">
         <v>0.011</v>
       </c>
       <c r="AP9" t="n">
-        <v>1058.369</v>
+        <v>863.6660000000001</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.532</v>
+        <v>-0.762</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2114.035</v>
+        <v>1921.376</v>
       </c>
       <c r="AT9" t="n">
-        <v>8540.025</v>
+        <v>8611.717000000001</v>
       </c>
       <c r="AU9" t="n">
-        <v>-87.15900000000001</v>
+        <v>-194.703</v>
       </c>
       <c r="AV9" t="n">
-        <v>78.163</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="AW9" t="n">
-        <v>-1.249</v>
+        <v>-33.737</v>
       </c>
       <c r="AX9" t="n">
-        <v>76.914</v>
+        <v>48.413</v>
       </c>
       <c r="AY9" t="n">
-        <v>5.06</v>
+        <v>-31.844</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-8.481</v>
+        <v>-5.188</v>
       </c>
       <c r="BB9" t="n">
-        <v>-54.63</v>
+        <v>202.867</v>
       </c>
       <c r="BC9" t="n">
-        <v>-57.906</v>
+        <v>165.835</v>
       </c>
       <c r="BD9" t="n">
-        <v>-68.151</v>
+        <v>19.545</v>
       </c>
       <c r="BE9" t="n">
-        <v>-84.218</v>
+        <v>-53.198</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -3117,203 +3117,203 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.227</v>
+        <v>-0.249</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.227</v>
+        <v>-0.249</v>
       </c>
       <c r="BK9" t="n">
-        <v>-4.554</v>
+        <v>-4.172</v>
       </c>
       <c r="BL9" t="n">
-        <v>-88.999</v>
+        <v>-57.619</v>
       </c>
       <c r="BM9" t="n">
-        <v>-2.336</v>
+        <v>-44.548</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-2.336</v>
+        <v>-44.548</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.163</v>
+        <v>-1.772</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.163</v>
+        <v>-1.772</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0.028</v>
+        <v>-1.2</v>
       </c>
       <c r="BT9" t="n">
-        <v>-2.527</v>
+        <v>-47.52</v>
       </c>
       <c r="BU9" t="n">
-        <v>-159.677</v>
+        <v>-85.59399999999999</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.564</v>
+        <v>4.046</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.4444</v>
+        <v>1.1354</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.5847</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.5065</v>
+        <v>1.6112</v>
       </c>
       <c r="CA9" t="n">
-        <v>69.9691</v>
+        <v>61.8961</v>
       </c>
       <c r="CB9" t="n">
-        <v>-6.2326</v>
+        <v>-21.8614</v>
       </c>
       <c r="CC9" t="n">
-        <v>-6.2326</v>
+        <v>-21.8614</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-9.298400000000001</v>
+        <v>-25.2282</v>
       </c>
       <c r="CF9" t="n">
-        <v>-8.825699999999999</v>
+        <v>-20.1282</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.1156</v>
+        <v>0.1123</v>
       </c>
       <c r="CH9" t="n">
         <v>0</v>
       </c>
       <c r="CI9" t="n">
-        <v>5.9235</v>
+        <v>4.8716</v>
       </c>
       <c r="CJ9" t="n">
-        <v>15.1937</v>
+        <v>18.4744</v>
       </c>
       <c r="CK9" t="n">
-        <v>-4.1229</v>
+        <v>-10.1335</v>
       </c>
       <c r="CL9" t="n">
-        <v>-4.1229</v>
+        <v>-10.1335</v>
       </c>
       <c r="CM9" t="n">
-        <v>-1.0206</v>
+        <v>-2.2609</v>
       </c>
       <c r="CN9" t="n">
-        <v>-1.7124</v>
+        <v>-4.1223</v>
       </c>
       <c r="CO9" t="n">
-        <v>19.4968</v>
+        <v>17.6891</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.5057</v>
+        <v>0.18</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-1.4371</v>
+        <v>-0.3099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.631</v>
+        <v>987.556</v>
       </c>
       <c r="C10" t="n">
-        <v>259.618</v>
+        <v>296.572</v>
       </c>
       <c r="D10" t="n">
-        <v>663.013</v>
+        <v>690.984</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>432.343</v>
+        <v>456.138</v>
       </c>
       <c r="G10" t="n">
-        <v>-76.542</v>
+        <v>-160.155</v>
       </c>
       <c r="H10" t="n">
-        <v>649.018</v>
+        <v>752.534</v>
       </c>
       <c r="I10" t="n">
-        <v>13.995</v>
+        <v>-61.55</v>
       </c>
       <c r="J10" t="n">
-        <v>-30.997</v>
+        <v>-30.277</v>
       </c>
       <c r="K10" t="n">
-        <v>-17.002</v>
+        <v>-91.827</v>
       </c>
       <c r="L10" t="n">
-        <v>-31.776</v>
+        <v>-4.668</v>
       </c>
       <c r="M10" t="n">
-        <v>14.774</v>
+        <v>-87.15900000000001</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>14.774</v>
+        <v>-87.15900000000001</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.774</v>
+        <v>-87.15900000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>90.77500000000001</v>
+        <v>16.613</v>
       </c>
       <c r="S10" t="n">
-        <v>13.995</v>
+        <v>-61.55</v>
       </c>
       <c r="T10" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U10" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="V10" t="n">
-        <v>0.14</v>
+        <v>-0.76</v>
       </c>
       <c r="W10" t="n">
-        <v>0.14</v>
+        <v>-0.76</v>
       </c>
       <c r="X10" t="n">
-        <v>1694.967</v>
+        <v>1535.22</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.552</v>
+        <v>166.718</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.189</v>
+        <v>140.553</v>
       </c>
       <c r="AB10" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>2027.208</v>
+        <v>1842.491</v>
       </c>
       <c r="AD10" t="n">
-        <v>3827.341</v>
+        <v>3856.593</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -3322,79 +3322,79 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>549.687</v>
+        <v>560.359</v>
       </c>
       <c r="AH10" t="n">
-        <v>6510.141</v>
+        <v>6697.534</v>
       </c>
       <c r="AI10" t="n">
-        <v>8537.349</v>
+        <v>8540.025</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1303.901</v>
+        <v>1275.602</v>
       </c>
       <c r="AK10" t="n">
-        <v>2975.328</v>
+        <v>2975.823</v>
       </c>
       <c r="AL10" t="n">
-        <v>54.428</v>
+        <v>47.742</v>
       </c>
       <c r="AM10" t="n">
-        <v>5034.624</v>
+        <v>5150.388</v>
       </c>
       <c r="AN10" t="n">
-        <v>6338.525</v>
+        <v>6425.99</v>
       </c>
       <c r="AO10" t="n">
         <v>0.011</v>
       </c>
       <c r="AP10" t="n">
-        <v>1145.528</v>
+        <v>1058.369</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.502</v>
+        <v>-0.532</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2198.824</v>
+        <v>2114.035</v>
       </c>
       <c r="AT10" t="n">
-        <v>8537.349</v>
+        <v>8540.025</v>
       </c>
       <c r="AU10" t="n">
-        <v>14.774</v>
+        <v>-87.15900000000001</v>
       </c>
       <c r="AV10" t="n">
-        <v>76.78</v>
+        <v>78.163</v>
       </c>
       <c r="AW10" t="n">
-        <v>-26.966</v>
+        <v>-1.249</v>
       </c>
       <c r="AX10" t="n">
-        <v>49.814</v>
+        <v>76.914</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.624</v>
+        <v>5.06</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-2.486</v>
+        <v>-8.481</v>
       </c>
       <c r="BB10" t="n">
-        <v>-276.69</v>
+        <v>-54.63</v>
       </c>
       <c r="BC10" t="n">
-        <v>-271.665</v>
+        <v>-57.906</v>
       </c>
       <c r="BD10" t="n">
-        <v>-207.077</v>
+        <v>-68.151</v>
       </c>
       <c r="BE10" t="n">
-        <v>-80.57599999999999</v>
+        <v>-84.218</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -3406,203 +3406,203 @@
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>-0.198</v>
+        <v>-0.227</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.198</v>
+        <v>-0.227</v>
       </c>
       <c r="BK10" t="n">
-        <v>-3.649</v>
+        <v>-4.554</v>
       </c>
       <c r="BL10" t="n">
-        <v>-84.423</v>
+        <v>-88.999</v>
       </c>
       <c r="BM10" t="n">
-        <v>-45.834</v>
+        <v>-2.336</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-45.834</v>
+        <v>-2.336</v>
       </c>
       <c r="BP10" t="n">
+        <v>-0.163</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>-0.163</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
         <v>-0.028</v>
       </c>
-      <c r="BQ10" t="n">
-        <v>-0.028</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0.036</v>
-      </c>
       <c r="BT10" t="n">
-        <v>-45.826</v>
+        <v>-2.527</v>
       </c>
       <c r="BU10" t="n">
-        <v>-337.326</v>
+        <v>-159.677</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.232</v>
+        <v>2.564</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.5547</v>
+        <v>1.4444</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.575</v>
+        <v>0.5847</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.4479</v>
+        <v>1.5065</v>
       </c>
       <c r="CA10" t="n">
-        <v>71.86109999999999</v>
+        <v>69.9691</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.5169</v>
+        <v>-6.2326</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.5169</v>
+        <v>-6.2326</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-1.8428</v>
+        <v>-9.298400000000001</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.6013</v>
+        <v>-8.825699999999999</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.1081</v>
+        <v>0.1156</v>
       </c>
       <c r="CH10" t="n">
         <v>0</v>
       </c>
       <c r="CI10" t="n">
-        <v>5.3781</v>
+        <v>5.9235</v>
       </c>
       <c r="CJ10" t="n">
-        <v>16.7344</v>
+        <v>15.1937</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.6719000000000001</v>
+        <v>-4.1229</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.6719000000000001</v>
+        <v>-4.1229</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.1731</v>
+        <v>-1.0206</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.2855</v>
+        <v>-1.7124</v>
       </c>
       <c r="CO10" t="n">
-        <v>20.2834</v>
+        <v>19.4968</v>
       </c>
       <c r="CP10" t="n">
-        <v>-2.1042</v>
+        <v>-0.5057</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-2.7462</v>
+        <v>-1.4371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>859.309</v>
+        <v>922.631</v>
       </c>
       <c r="C11" t="n">
-        <v>214.825</v>
+        <v>259.618</v>
       </c>
       <c r="D11" t="n">
-        <v>644.484</v>
+        <v>663.013</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>413.635</v>
+        <v>432.343</v>
       </c>
       <c r="G11" t="n">
-        <v>0.706</v>
+        <v>-76.542</v>
       </c>
       <c r="H11" t="n">
-        <v>551.273</v>
+        <v>649.018</v>
       </c>
       <c r="I11" t="n">
-        <v>93.211</v>
+        <v>13.995</v>
       </c>
       <c r="J11" t="n">
-        <v>-366.521</v>
+        <v>-30.997</v>
       </c>
       <c r="K11" t="n">
-        <v>-273.31</v>
+        <v>-17.002</v>
       </c>
       <c r="L11" t="n">
-        <v>14.553</v>
+        <v>-31.776</v>
       </c>
       <c r="M11" t="n">
-        <v>-287.863</v>
+        <v>14.774</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-287.863</v>
+        <v>14.774</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-287.863</v>
+        <v>14.774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.57</v>
+        <v>90.77500000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>93.211</v>
+        <v>13.995</v>
       </c>
       <c r="T11" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U11" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.73</v>
+        <v>0.14</v>
       </c>
       <c r="W11" t="n">
-        <v>-2.73</v>
+        <v>0.14</v>
       </c>
       <c r="X11" t="n">
-        <v>2032.285</v>
+        <v>1694.967</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.968</v>
+        <v>171.552</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.038</v>
+        <v>133.189</v>
       </c>
       <c r="AB11" t="n">
-        <v>45.111</v>
+        <v>27.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>2388.402</v>
+        <v>2027.208</v>
       </c>
       <c r="AD11" t="n">
-        <v>3832.262</v>
+        <v>3827.341</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -3611,79 +3611,79 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>529.577</v>
+        <v>549.687</v>
       </c>
       <c r="AH11" t="n">
-        <v>6283.081</v>
+        <v>6510.141</v>
       </c>
       <c r="AI11" t="n">
-        <v>8671.483</v>
+        <v>8537.349</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1601.179</v>
+        <v>1303.901</v>
       </c>
       <c r="AK11" t="n">
-        <v>3014.958</v>
+        <v>2975.328</v>
       </c>
       <c r="AL11" t="n">
-        <v>39.779</v>
+        <v>54.428</v>
       </c>
       <c r="AM11" t="n">
-        <v>4889.497</v>
+        <v>5034.624</v>
       </c>
       <c r="AN11" t="n">
-        <v>6490.676</v>
+        <v>6338.525</v>
       </c>
       <c r="AO11" t="n">
         <v>0.011</v>
       </c>
       <c r="AP11" t="n">
-        <v>1130.754</v>
+        <v>1145.528</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0.541</v>
+        <v>-0.502</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2180.807</v>
+        <v>2198.824</v>
       </c>
       <c r="AT11" t="n">
-        <v>8671.483</v>
+        <v>8537.349</v>
       </c>
       <c r="AU11" t="n">
-        <v>-287.863</v>
+        <v>14.774</v>
       </c>
       <c r="AV11" t="n">
-        <v>77.35899999999999</v>
+        <v>76.78</v>
       </c>
       <c r="AW11" t="n">
-        <v>348.785</v>
+        <v>-26.966</v>
       </c>
       <c r="AX11" t="n">
-        <v>426.144</v>
+        <v>49.814</v>
       </c>
       <c r="AY11" t="n">
-        <v>-41.228</v>
+        <v>7.624</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>20.822</v>
+        <v>-2.486</v>
       </c>
       <c r="BB11" t="n">
-        <v>179.584</v>
+        <v>-276.69</v>
       </c>
       <c r="BC11" t="n">
-        <v>159.187</v>
+        <v>-271.665</v>
       </c>
       <c r="BD11" t="n">
-        <v>297.468</v>
+        <v>-207.077</v>
       </c>
       <c r="BE11" t="n">
-        <v>-76.56</v>
+        <v>-80.57599999999999</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
@@ -3695,203 +3695,203 @@
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0.244</v>
+        <v>-0.198</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.244</v>
+        <v>-0.198</v>
       </c>
       <c r="BK11" t="n">
-        <v>-4.713</v>
+        <v>-3.649</v>
       </c>
       <c r="BL11" t="n">
-        <v>-81.517</v>
+        <v>-84.423</v>
       </c>
       <c r="BM11" t="n">
-        <v>-184.177</v>
+        <v>-45.834</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>-184.177</v>
+        <v>-45.834</v>
       </c>
       <c r="BP11" t="n">
-        <v>373.499</v>
+        <v>-0.028</v>
       </c>
       <c r="BQ11" t="n">
-        <v>373.499</v>
+        <v>-0.028</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-317.834</v>
+        <v>0.036</v>
       </c>
       <c r="BT11" t="n">
-        <v>-128.512</v>
+        <v>-45.826</v>
       </c>
       <c r="BU11" t="n">
-        <v>87.43899999999999</v>
+        <v>-337.326</v>
       </c>
       <c r="BV11" t="n">
-        <v>2.486</v>
+        <v>3.232</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.4917</v>
+        <v>1.5547</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.5803</v>
+        <v>0.575</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.4792</v>
+        <v>1.4479</v>
       </c>
       <c r="CA11" t="n">
-        <v>75.0003</v>
+        <v>71.86109999999999</v>
       </c>
       <c r="CB11" t="n">
-        <v>10.8472</v>
+        <v>1.5169</v>
       </c>
       <c r="CC11" t="n">
-        <v>10.8472</v>
+        <v>1.5169</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-31.8058</v>
+        <v>-1.8428</v>
       </c>
       <c r="CF11" t="n">
-        <v>-33.4994</v>
+        <v>1.6013</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.09909999999999999</v>
+        <v>0.1081</v>
       </c>
       <c r="CH11" t="n">
         <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>4.8015</v>
+        <v>5.3781</v>
       </c>
       <c r="CJ11" t="n">
-        <v>18.7443</v>
+        <v>16.7344</v>
       </c>
       <c r="CK11" t="n">
-        <v>-13.1998</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="CL11" t="n">
-        <v>-13.1998</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="CM11" t="n">
-        <v>-3.3197</v>
+        <v>0.1731</v>
       </c>
       <c r="CN11" t="n">
-        <v>-5.5403</v>
+        <v>0.2855</v>
       </c>
       <c r="CO11" t="n">
-        <v>20.1178</v>
+        <v>20.2834</v>
       </c>
       <c r="CP11" t="n">
-        <v>2.6903</v>
+        <v>-2.1042</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.0306</v>
+        <v>-2.7462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.279</v>
+        <v>859.309</v>
       </c>
       <c r="C12" t="n">
-        <v>142.93</v>
+        <v>214.825</v>
       </c>
       <c r="D12" t="n">
-        <v>318.349</v>
+        <v>644.484</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>371.345</v>
+        <v>413.635</v>
       </c>
       <c r="G12" t="n">
-        <v>79.56</v>
+        <v>0.706</v>
       </c>
       <c r="H12" t="n">
-        <v>420.879</v>
+        <v>551.273</v>
       </c>
       <c r="I12" t="n">
-        <v>-102.53</v>
+        <v>93.211</v>
       </c>
       <c r="J12" t="n">
-        <v>-35.651</v>
+        <v>-366.521</v>
       </c>
       <c r="K12" t="n">
-        <v>-138.181</v>
+        <v>-273.31</v>
       </c>
       <c r="L12" t="n">
-        <v>-25.86</v>
+        <v>14.553</v>
       </c>
       <c r="M12" t="n">
-        <v>-112.321</v>
+        <v>-287.863</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>-112.321</v>
+        <v>-287.863</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-112.321</v>
+        <v>-287.863</v>
       </c>
       <c r="R12" t="n">
-        <v>-24.709</v>
+        <v>170.57</v>
       </c>
       <c r="S12" t="n">
-        <v>-102.53</v>
+        <v>93.211</v>
       </c>
       <c r="T12" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="U12" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="V12" t="n">
-        <v>-1.15</v>
+        <v>-2.73</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.15</v>
+        <v>-2.73</v>
       </c>
       <c r="X12" t="n">
-        <v>1944.847</v>
+        <v>2032.285</v>
       </c>
       <c r="Y12" t="n">
-        <v>137.838</v>
+        <v>178.968</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.127</v>
+        <v>132.038</v>
       </c>
       <c r="AB12" t="n">
-        <v>72.28100000000001</v>
+        <v>45.111</v>
       </c>
       <c r="AC12" t="n">
-        <v>2276.093</v>
+        <v>2388.402</v>
       </c>
       <c r="AD12" t="n">
-        <v>3816.83</v>
+        <v>3832.262</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -3900,79 +3900,79 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>498.561</v>
+        <v>529.577</v>
       </c>
       <c r="AH12" t="n">
-        <v>6111.642</v>
+        <v>6283.081</v>
       </c>
       <c r="AI12" t="n">
-        <v>8387.735000000001</v>
+        <v>8671.483</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1508.08</v>
+        <v>1601.179</v>
       </c>
       <c r="AK12" t="n">
-        <v>3048.378</v>
+        <v>3014.958</v>
       </c>
       <c r="AL12" t="n">
-        <v>49.391</v>
+        <v>39.779</v>
       </c>
       <c r="AM12" t="n">
-        <v>4786.666</v>
+        <v>4889.497</v>
       </c>
       <c r="AN12" t="n">
-        <v>6294.746</v>
+        <v>6490.676</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AP12" t="n">
-        <v>1418.617</v>
+        <v>1130.754</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.5659999999999999</v>
+        <v>-0.541</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2092.989</v>
+        <v>2180.807</v>
       </c>
       <c r="AT12" t="n">
-        <v>8387.735000000001</v>
+        <v>8671.483</v>
       </c>
       <c r="AU12" t="n">
-        <v>-112.321</v>
+        <v>-287.863</v>
       </c>
       <c r="AV12" t="n">
-        <v>77.821</v>
+        <v>77.35899999999999</v>
       </c>
       <c r="AW12" t="n">
-        <v>-21.176</v>
+        <v>348.785</v>
       </c>
       <c r="AX12" t="n">
-        <v>56.645</v>
+        <v>426.144</v>
       </c>
       <c r="AY12" t="n">
-        <v>-57.256</v>
+        <v>-41.228</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.202</v>
+        <v>20.822</v>
       </c>
       <c r="BB12" t="n">
-        <v>186.693</v>
+        <v>179.584</v>
       </c>
       <c r="BC12" t="n">
-        <v>242.324</v>
+        <v>159.187</v>
       </c>
       <c r="BD12" t="n">
-        <v>186.648</v>
+        <v>297.468</v>
       </c>
       <c r="BE12" t="n">
-        <v>-92.97199999999999</v>
+        <v>-76.56</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
@@ -3984,203 +3984,203 @@
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.192</v>
+        <v>-0.244</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.192</v>
+        <v>-0.244</v>
       </c>
       <c r="BK12" t="n">
-        <v>-4.342</v>
+        <v>-4.713</v>
       </c>
       <c r="BL12" t="n">
-        <v>-97.506</v>
+        <v>-81.517</v>
       </c>
       <c r="BM12" t="n">
-        <v>-110.776</v>
+        <v>-184.177</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-110.776</v>
+        <v>-184.177</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.839</v>
+        <v>373.499</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.839</v>
+        <v>373.499</v>
       </c>
       <c r="BR12" t="n">
         <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-1.858</v>
+        <v>-317.834</v>
       </c>
       <c r="BT12" t="n">
-        <v>-111.795</v>
+        <v>-128.512</v>
       </c>
       <c r="BU12" t="n">
-        <v>-22.653</v>
+        <v>87.43899999999999</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.254</v>
+        <v>2.486</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.5093</v>
+        <v>1.4917</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.5929</v>
+        <v>0.5803</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.6269</v>
+        <v>1.4792</v>
       </c>
       <c r="CA12" t="n">
-        <v>69.01439999999999</v>
+        <v>75.0003</v>
       </c>
       <c r="CB12" t="n">
-        <v>-22.2273</v>
+        <v>10.8472</v>
       </c>
       <c r="CC12" t="n">
-        <v>-22.2273</v>
+        <v>10.8472</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-29.9561</v>
+        <v>-31.8058</v>
       </c>
       <c r="CF12" t="n">
-        <v>-24.3499</v>
+        <v>-33.4994</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.055</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="CH12" t="n">
         <v>0</v>
       </c>
       <c r="CI12" t="n">
-        <v>3.3465</v>
+        <v>4.8015</v>
       </c>
       <c r="CJ12" t="n">
-        <v>26.8935</v>
+        <v>18.7443</v>
       </c>
       <c r="CK12" t="n">
-        <v>-5.3665</v>
+        <v>-13.1998</v>
       </c>
       <c r="CL12" t="n">
-        <v>-5.3665</v>
+        <v>-13.1998</v>
       </c>
       <c r="CM12" t="n">
-        <v>-1.3391</v>
+        <v>-3.3197</v>
       </c>
       <c r="CN12" t="n">
-        <v>-2.1847</v>
+        <v>-5.5403</v>
       </c>
       <c r="CO12" t="n">
-        <v>21.3994</v>
+        <v>20.1178</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.909</v>
+        <v>2.6903</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.9581</v>
+        <v>2.0306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.49</v>
+        <v>461.279</v>
       </c>
       <c r="C13" t="n">
-        <v>103.597</v>
+        <v>142.93</v>
       </c>
       <c r="D13" t="n">
-        <v>394.893</v>
+        <v>318.349</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>346.231</v>
+        <v>371.345</v>
       </c>
       <c r="G13" t="n">
-        <v>-83.866</v>
+        <v>79.56</v>
       </c>
       <c r="H13" t="n">
-        <v>554.808</v>
+        <v>420.879</v>
       </c>
       <c r="I13" t="n">
-        <v>-159.915</v>
+        <v>-102.53</v>
       </c>
       <c r="J13" t="n">
-        <v>-44.619</v>
+        <v>-35.651</v>
       </c>
       <c r="K13" t="n">
-        <v>-204.534</v>
+        <v>-138.181</v>
       </c>
       <c r="L13" t="n">
-        <v>-47.23</v>
+        <v>-25.86</v>
       </c>
       <c r="M13" t="n">
-        <v>-157.304</v>
+        <v>-112.321</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-157.304</v>
+        <v>-112.321</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-157.304</v>
+        <v>-112.321</v>
       </c>
       <c r="R13" t="n">
-        <v>-84.367</v>
+        <v>-24.709</v>
       </c>
       <c r="S13" t="n">
-        <v>-159.915</v>
+        <v>-102.53</v>
       </c>
       <c r="T13" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="U13" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.77</v>
+        <v>-1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.77</v>
+        <v>-1.15</v>
       </c>
       <c r="X13" t="n">
-        <v>1967.463</v>
+        <v>1944.847</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.4</v>
+        <v>137.838</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.983</v>
+        <v>121.127</v>
       </c>
       <c r="AB13" t="n">
-        <v>73.134</v>
+        <v>72.28100000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2355.98</v>
+        <v>2276.093</v>
       </c>
       <c r="AD13" t="n">
-        <v>3831.568</v>
+        <v>3816.83</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -4189,79 +4189,79 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>445.547</v>
+        <v>498.561</v>
       </c>
       <c r="AH13" t="n">
-        <v>6042.845</v>
+        <v>6111.642</v>
       </c>
       <c r="AI13" t="n">
-        <v>8398.825000000001</v>
+        <v>8387.735000000001</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1342.022</v>
+        <v>1508.08</v>
       </c>
       <c r="AK13" t="n">
-        <v>3066.635</v>
+        <v>3048.378</v>
       </c>
       <c r="AL13" t="n">
-        <v>52.06</v>
+        <v>49.391</v>
       </c>
       <c r="AM13" t="n">
-        <v>4807.108</v>
+        <v>4786.666</v>
       </c>
       <c r="AN13" t="n">
-        <v>6149.13</v>
+        <v>6294.746</v>
       </c>
       <c r="AO13" t="n">
         <v>0.01</v>
       </c>
       <c r="AP13" t="n">
-        <v>1524.878</v>
+        <v>1418.617</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.618</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2249.695</v>
+        <v>2092.989</v>
       </c>
       <c r="AT13" t="n">
-        <v>8398.825000000001</v>
+        <v>8387.735000000001</v>
       </c>
       <c r="AU13" t="n">
-        <v>-157.304</v>
+        <v>-112.321</v>
       </c>
       <c r="AV13" t="n">
-        <v>75.548</v>
+        <v>77.821</v>
       </c>
       <c r="AW13" t="n">
-        <v>-37.043</v>
+        <v>-21.176</v>
       </c>
       <c r="AX13" t="n">
-        <v>38.505</v>
+        <v>56.645</v>
       </c>
       <c r="AY13" t="n">
-        <v>8.242000000000001</v>
+        <v>-57.256</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-7.546</v>
+        <v>3.202</v>
       </c>
       <c r="BB13" t="n">
-        <v>22.936</v>
+        <v>186.693</v>
       </c>
       <c r="BC13" t="n">
-        <v>22.91</v>
+        <v>242.324</v>
       </c>
       <c r="BD13" t="n">
-        <v>-95.889</v>
+        <v>186.648</v>
       </c>
       <c r="BE13" t="n">
-        <v>-37.919</v>
+        <v>-92.97199999999999</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
@@ -4273,109 +4273,109 @@
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.191</v>
+        <v>-0.192</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.191</v>
+        <v>-0.192</v>
       </c>
       <c r="BK13" t="n">
-        <v>-3.076</v>
+        <v>-4.342</v>
       </c>
       <c r="BL13" t="n">
-        <v>-41.186</v>
+        <v>-97.506</v>
       </c>
       <c r="BM13" t="n">
-        <v>-4.447</v>
+        <v>-110.776</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-4.447</v>
+        <v>-110.776</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.07199999999999999</v>
+        <v>0.839</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.07199999999999999</v>
+        <v>0.839</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.261</v>
+        <v>-1.858</v>
       </c>
       <c r="BT13" t="n">
-        <v>-4.258</v>
+        <v>-111.795</v>
       </c>
       <c r="BU13" t="n">
-        <v>-141.333</v>
+        <v>-22.653</v>
       </c>
       <c r="BV13" t="n">
-        <v>2.979</v>
+        <v>4.254</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.7555</v>
+        <v>1.5093</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.5768</v>
+        <v>0.5929</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.5339</v>
+        <v>1.6269</v>
       </c>
       <c r="CA13" t="n">
-        <v>79.2179</v>
+        <v>69.01439999999999</v>
       </c>
       <c r="CB13" t="n">
-        <v>-32.0799</v>
+        <v>-22.2273</v>
       </c>
       <c r="CC13" t="n">
-        <v>-32.0798</v>
+        <v>-22.2273</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-41.0307</v>
+        <v>-29.9561</v>
       </c>
       <c r="CF13" t="n">
-        <v>-31.5561</v>
+        <v>-24.3499</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0594</v>
+        <v>0.055</v>
       </c>
       <c r="CH13" t="n">
         <v>0</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.6181</v>
+        <v>3.3465</v>
       </c>
       <c r="CJ13" t="n">
-        <v>34.3758</v>
+        <v>26.8935</v>
       </c>
       <c r="CK13" t="n">
-        <v>-6.9922</v>
+        <v>-5.3665</v>
       </c>
       <c r="CL13" t="n">
-        <v>-6.9922</v>
+        <v>-5.3665</v>
       </c>
       <c r="CM13" t="n">
-        <v>-1.8729</v>
+        <v>-1.3391</v>
       </c>
       <c r="CN13" t="n">
-        <v>-2.9589</v>
+        <v>-2.1847</v>
       </c>
       <c r="CO13" t="n">
-        <v>23.0289</v>
+        <v>21.3994</v>
       </c>
       <c r="CP13" t="n">
-        <v>-1.2646</v>
+        <v>1.909</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-2.2268</v>
+        <v>0.9581</v>
       </c>
     </row>
   </sheetData>
